--- a/ExcelData/TestData.xlsx
+++ b/ExcelData/TestData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\minty\OneDrive\Documents\onboarding\MarsFramework\MarsFramework\ExcelData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\minty\OneDrive\Documents\onboarding\MarsFramework\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="47" documentId="11_40C60FA8E86F796FAE462368AF49F5876813FE7B" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{09B8B691-41BB-4FD4-89A5-3D9C832ACCD8}"/>
+  <xr:revisionPtr revIDLastSave="48" documentId="11_40C60FA8E86F796FAE462368AF49F5876813FE7B" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{2A260CC1-3844-4BD3-88B2-ADD9EA98AF6C}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SignUp" sheetId="3" r:id="rId1"/>
@@ -34,9 +34,6 @@
     <t>Password</t>
   </si>
   <si>
-    <t>http://www.skillswap.pro/Home</t>
-  </si>
-  <si>
     <t>Language</t>
   </si>
   <si>
@@ -146,6 +143,9 @@
   </si>
   <si>
     <t xml:space="preserve">This is for the beginner of testing </t>
+  </si>
+  <si>
+    <t>192.168.99.100:5000</t>
   </si>
 </sst>
 </file>
@@ -571,36 +571,36 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>26</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" t="s">
         <v>28</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" t="s">
         <v>30</v>
       </c>
-      <c r="D2" t="s">
-        <v>31</v>
-      </c>
       <c r="E2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -615,8 +615,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -639,10 +639,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>3</v>
+        <v>40</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C2" s="2">
         <v>123123</v>
@@ -650,7 +650,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="A2" r:id="rId1" display="http://www.skillswap.pro/Home" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
     <hyperlink ref="B2" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
     <hyperlink ref="C2" r:id="rId3" display="Test@123" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
   </hyperlinks>
@@ -663,7 +663,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC985AC6-E71E-4AC4-B046-E6AD76AD52DF}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7:C9"/>
     </sheetView>
   </sheetViews>
@@ -678,33 +678,33 @@
   <sheetData>
     <row r="1" spans="1:5" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>35</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>38</v>
-      </c>
-      <c r="D2" t="s">
-        <v>39</v>
       </c>
       <c r="E2">
         <v>10</v>
@@ -738,66 +738,66 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/ExcelData/TestData.xlsx
+++ b/ExcelData/TestData.xlsx
@@ -8,22 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\minty\OneDrive\Documents\onboarding\MarsFramework\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="48" documentId="11_40C60FA8E86F796FAE462368AF49F5876813FE7B" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{2A260CC1-3844-4BD3-88B2-ADD9EA98AF6C}"/>
+  <xr:revisionPtr revIDLastSave="66" documentId="11_40C60FA8E86F796FAE462368AF49F5876813FE7B" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{6DFA2735-F694-4393-9DBF-FA98EEAAB308}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SignUp" sheetId="3" r:id="rId1"/>
     <sheet name="SignIn" sheetId="1" r:id="rId2"/>
     <sheet name="SkillShare" sheetId="4" r:id="rId3"/>
     <sheet name="Profile" sheetId="2" r:id="rId4"/>
+    <sheet name="SearchSkills" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="44">
   <si>
     <t>Url</t>
   </si>
@@ -146,13 +147,22 @@
   </si>
   <si>
     <t>192.168.99.100:5000</t>
+  </si>
+  <si>
+    <t>Categories</t>
+  </si>
+  <si>
+    <t>Writing &amp; Translation</t>
+  </si>
+  <si>
+    <t>Search</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -173,6 +183,12 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF222222"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="3">
@@ -205,7 +221,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
@@ -215,6 +231,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -615,7 +632,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -803,4 +820,41 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{809F8232-5AD7-4286-A7FD-71F8352863E8}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="23.54296875" customWidth="1"/>
+    <col min="2" max="2" width="25.81640625" customWidth="1"/>
+    <col min="3" max="3" width="25.7265625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
 </file>